--- a/DeskChanger/Template_Record.xlsx
+++ b/DeskChanger/Template_Record.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riku\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riku\Dropbox\Develop\C#\DeskChanger\DeskChanger\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7215"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>名簿</t>
     <rPh sb="0" eb="2">
       <t>メイボ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -412,19 +408,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
